--- a/checklist_security-lab3.xlsx
+++ b/checklist_security-lab3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9120" tabRatio="710" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="6800" tabRatio="710" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Change Log" sheetId="8" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="35">
   <si>
     <t>Tên project</t>
   </si>
@@ -115,6 +115,9 @@
     <t>SV</t>
   </si>
   <si>
+    <t>OK</t>
+  </si>
+  <si>
     <t>Câu 2:
 - Màn hình update
 - Trên URL, ID có mã hóa</t>
@@ -127,13 +130,10 @@
 Mong đợi: không có lỗi xảy ra (hiển thị message không tìm thấy hoặc 1 xử lý khác)</t>
   </si>
   <si>
+    <t>NG</t>
+  </si>
+  <si>
     <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
       <t xml:space="preserve">Câu 3:
 - Màn hình update
 - Thiết lập giá trị name là: giá trị trong ngoặc  (      ) (chỉ copy giá trị trong ngoặc , không bao gồm dấu ngoặc
@@ -163,12 +163,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
       <t>Câu 3:
 - Màn hình update
 - Thiết lập giá trị name là: giá trị trong ngoặc  (</t>
@@ -206,12 +200,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
       <t>Câu 3:
 - Màn hình update
 - Thiết lập giá trị name là: giá trị trong ngoặc  (</t>
@@ -249,12 +237,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
       <t>Câu 3:
 - Màn hình update
 - Thiết lập giá trị name là: giá trị trong ngoặc  (</t>
@@ -364,12 +346,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
       <t>Câu 3:
 - Màn hình update
 - Thiết lập giá trị name là: giá trị trong ngoặc  (ABCDE) (chỉ copy giá trị trong ngoặc , không bao gồm dấu ngoặc
@@ -490,11 +466,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="5">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="yyyy\-mmm\-dd"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="180" formatCode="yyyy\-mmm\-dd"/>
   </numFmts>
   <fonts count="34">
     <font>
@@ -1147,16 +1123,16 @@
     <xf numFmtId="176" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1395,7 +1371,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="9" fillId="0" borderId="2" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="180" fontId="9" fillId="0" borderId="2" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1672,14 +1648,14 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.55555555555556" defaultRowHeight="13.8" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.55454545454545" defaultRowHeight="14" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="2.43518518518518" style="30" customWidth="1"/>
-    <col min="2" max="2" width="13.5555555555556" style="30" customWidth="1"/>
-    <col min="3" max="3" width="35.1018518518519" style="30" customWidth="1"/>
-    <col min="4" max="4" width="54.3333333333333" style="30" customWidth="1"/>
-    <col min="5" max="5" width="17.1018518518519" style="30" customWidth="1"/>
-    <col min="6" max="16384" width="8.55555555555556" style="30"/>
+    <col min="1" max="1" width="2.43636363636364" style="30" customWidth="1"/>
+    <col min="2" max="2" width="13.5545454545455" style="30" customWidth="1"/>
+    <col min="3" max="3" width="35.1" style="30" customWidth="1"/>
+    <col min="4" max="4" width="54.3363636363636" style="30" customWidth="1"/>
+    <col min="5" max="5" width="17.1" style="30" customWidth="1"/>
+    <col min="6" max="16384" width="8.55454545454545" style="30"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5">
@@ -1901,21 +1877,21 @@
   </sheetPr>
   <dimension ref="A1:AE898"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="Z5" sqref="Z5"/>
+      <selection pane="bottomLeft" activeCell="AG6" sqref="AG6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4351851851852" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.4363636363636" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="0.666666666666667" customWidth="1"/>
-    <col min="2" max="2" width="10.3333333333333" customWidth="1"/>
-    <col min="3" max="23" width="4.66666666666667" customWidth="1"/>
-    <col min="24" max="28" width="10.4351851851852" customWidth="1"/>
-    <col min="29" max="29" width="10.4351851851852" style="3" customWidth="1"/>
-    <col min="30" max="30" width="14.4351851851852" style="4"/>
-    <col min="31" max="31" width="0.333333333333333" style="5" customWidth="1"/>
+    <col min="1" max="1" width="0.663636363636364" customWidth="1"/>
+    <col min="2" max="2" width="10.3363636363636" customWidth="1"/>
+    <col min="3" max="23" width="4.66363636363636" customWidth="1"/>
+    <col min="24" max="28" width="10.4363636363636" customWidth="1"/>
+    <col min="29" max="29" width="10.4363636363636" style="3" customWidth="1"/>
+    <col min="30" max="30" width="14.4363636363636" style="4"/>
+    <col min="31" max="31" width="0.336363636363636" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="24.6" customHeight="1" spans="1:31">
@@ -1953,7 +1929,7 @@
       <c r="AD1" s="19"/>
       <c r="AE1" s="20"/>
     </row>
-    <row r="2" s="1" customFormat="1" ht="13.2" spans="1:31">
+    <row r="2" s="1" customFormat="1" ht="13" spans="1:31">
       <c r="A2" s="7" t="s">
         <v>15</v>
       </c>
@@ -2004,7 +1980,7 @@
       <c r="AC3" s="23"/>
       <c r="AD3" s="24" t="str">
         <f>"Point: "&amp;SUM(AD5:AD13)</f>
-        <v>Point: 0</v>
+        <v>Point: 7</v>
       </c>
       <c r="AE3" s="20"/>
     </row>
@@ -2085,13 +2061,15 @@
       <c r="Y5" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="Z5" s="25"/>
+      <c r="Z5" s="25" t="s">
+        <v>25</v>
+      </c>
       <c r="AA5" s="25"/>
       <c r="AB5" s="25"/>
       <c r="AC5" s="25"/>
       <c r="AD5" s="26">
         <f>IF(Z5="OK",1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE5" s="20"/>
     </row>
@@ -2101,7 +2079,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
@@ -2125,13 +2103,15 @@
       <c r="W6" s="13"/>
       <c r="X6" s="18"/>
       <c r="Y6" s="25"/>
-      <c r="Z6" s="25"/>
+      <c r="Z6" s="25" t="s">
+        <v>25</v>
+      </c>
       <c r="AA6" s="25"/>
       <c r="AB6" s="25"/>
       <c r="AC6" s="25"/>
       <c r="AD6" s="26">
         <f>IF(Z6="OK",1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE6" s="27"/>
     </row>
@@ -2141,7 +2121,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
@@ -2165,7 +2145,9 @@
       <c r="W7" s="13"/>
       <c r="X7" s="18"/>
       <c r="Y7" s="25"/>
-      <c r="Z7" s="25"/>
+      <c r="Z7" s="25" t="s">
+        <v>28</v>
+      </c>
       <c r="AA7" s="25"/>
       <c r="AB7" s="25"/>
       <c r="AC7" s="25"/>
@@ -2181,7 +2163,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
@@ -2205,13 +2187,15 @@
       <c r="W8" s="13"/>
       <c r="X8" s="18"/>
       <c r="Y8" s="25"/>
-      <c r="Z8" s="25"/>
+      <c r="Z8" s="25" t="s">
+        <v>25</v>
+      </c>
       <c r="AA8" s="25"/>
       <c r="AB8" s="25"/>
       <c r="AC8" s="25"/>
       <c r="AD8" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE8" s="20"/>
     </row>
@@ -2220,7 +2204,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D9" s="13"/>
       <c r="E9" s="13"/>
@@ -2244,13 +2228,15 @@
       <c r="W9" s="13"/>
       <c r="X9" s="18"/>
       <c r="Y9" s="25"/>
-      <c r="Z9" s="25"/>
+      <c r="Z9" s="25" t="s">
+        <v>25</v>
+      </c>
       <c r="AA9" s="25"/>
       <c r="AB9" s="25"/>
       <c r="AC9" s="25"/>
       <c r="AD9" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE9" s="20"/>
     </row>
@@ -2260,7 +2246,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
@@ -2284,13 +2270,15 @@
       <c r="W10" s="13"/>
       <c r="X10" s="18"/>
       <c r="Y10" s="25"/>
-      <c r="Z10" s="25"/>
+      <c r="Z10" s="25" t="s">
+        <v>25</v>
+      </c>
       <c r="AA10" s="25"/>
       <c r="AB10" s="25"/>
       <c r="AC10" s="25"/>
       <c r="AD10" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE10" s="20"/>
     </row>
@@ -2300,7 +2288,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
@@ -2324,13 +2312,15 @@
       <c r="W11" s="13"/>
       <c r="X11" s="18"/>
       <c r="Y11" s="25"/>
-      <c r="Z11" s="25"/>
+      <c r="Z11" s="25" t="s">
+        <v>25</v>
+      </c>
       <c r="AA11" s="25"/>
       <c r="AB11" s="25"/>
       <c r="AC11" s="25"/>
       <c r="AD11" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>IF(Z11="OK",1,0)</f>
+        <v>1</v>
       </c>
       <c r="AE11" s="20"/>
     </row>
@@ -2340,7 +2330,7 @@
         <v>8</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13"/>
@@ -2364,13 +2354,15 @@
       <c r="W12" s="13"/>
       <c r="X12" s="18"/>
       <c r="Y12" s="25"/>
-      <c r="Z12" s="25"/>
+      <c r="Z12" s="25" t="s">
+        <v>25</v>
+      </c>
       <c r="AA12" s="25"/>
       <c r="AB12" s="25"/>
       <c r="AC12" s="25"/>
       <c r="AD12" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE12" s="20"/>
     </row>
@@ -2380,7 +2372,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="13"/>
@@ -2404,7 +2396,9 @@
       <c r="W13" s="13"/>
       <c r="X13" s="18"/>
       <c r="Y13" s="25"/>
-      <c r="Z13" s="25"/>
+      <c r="Z13" s="25" t="s">
+        <v>28</v>
+      </c>
       <c r="AA13" s="25"/>
       <c r="AB13" s="25"/>
       <c r="AC13" s="25"/>
@@ -5583,7 +5577,7 @@
     <mergeCell ref="C3:W4"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z5:Z28 AC5:AC28">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z5:Z28;AC5:AC28">
       <formula1>"OK,NG"</formula1>
     </dataValidation>
   </dataValidations>
